--- a/espn_scrapper/IPL/Kings XI Punjab/Sarfaraz Khan .xlsx
+++ b/espn_scrapper/IPL/Kings XI Punjab/Sarfaraz Khan .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -542,9 +542,44 @@
         <v>100.00</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve"> Sep 20 2020</v>
+      </c>
+      <c r="B5" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Match tied (Capitals won the one-over eliminator)</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="F5" t="str">
+        <v xml:space="preserve">Sarfaraz Khan </v>
+      </c>
+      <c r="G5" t="str">
+        <v>12</v>
+      </c>
+      <c r="H5" t="str">
+        <v>12</v>
+      </c>
+      <c r="I5" t="str">
+        <v>2</v>
+      </c>
+      <c r="J5" t="str">
+        <v>0</v>
+      </c>
+      <c r="K5" t="str">
+        <v>100.00</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
   </ignoredErrors>
 </worksheet>
 </file>